--- a/ChengGuan/testFile/newPersonnel/newPresonnel.xlsx
+++ b/ChengGuan/testFile/newPersonnel/newPresonnel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="285">
   <si>
     <t>deptId</t>
   </si>
@@ -1249,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4460,6 +4460,3160 @@
         <v>1</v>
       </c>
       <c r="L84" s="2">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="2">
+        <v>15036987571</v>
+      </c>
+      <c r="H85" s="6">
+        <v>220</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="2">
+        <v>5</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="2">
+        <v>15036987572</v>
+      </c>
+      <c r="H86" s="6">
+        <v>221</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="2">
+        <v>15036987573</v>
+      </c>
+      <c r="H87" s="6">
+        <v>222</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="2">
+        <v>5</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="2">
+        <v>15036987574</v>
+      </c>
+      <c r="H88" s="6">
+        <v>223</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="2">
+        <v>5</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1</v>
+      </c>
+      <c r="L88" s="2">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="2">
+        <v>15036987575</v>
+      </c>
+      <c r="H89" s="6">
+        <v>224</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="2">
+        <v>5</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="2">
+        <v>15036987576</v>
+      </c>
+      <c r="H90" s="6">
+        <v>225</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="2">
+        <v>5</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="2">
+        <v>15036987577</v>
+      </c>
+      <c r="H91" s="6">
+        <v>226</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="2">
+        <v>5</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1</v>
+      </c>
+      <c r="L91" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="2">
+        <v>15036987578</v>
+      </c>
+      <c r="H92" s="6">
+        <v>227</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="2">
+        <v>5</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="2">
+        <v>15036987579</v>
+      </c>
+      <c r="H93" s="6">
+        <v>228</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="2">
+        <v>5</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="2">
+        <v>15036987580</v>
+      </c>
+      <c r="H94" s="6">
+        <v>229</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="2">
+        <v>5</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1</v>
+      </c>
+      <c r="L94" s="2">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" s="2">
+        <v>15036987581</v>
+      </c>
+      <c r="H95" s="6">
+        <v>230</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="2">
+        <v>5</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1</v>
+      </c>
+      <c r="L95" s="2">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G96" s="2">
+        <v>15036987582</v>
+      </c>
+      <c r="H96" s="6">
+        <v>231</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="2">
+        <v>5</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" s="2">
+        <v>15036987583</v>
+      </c>
+      <c r="H97" s="6">
+        <v>232</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="2">
+        <v>5</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" s="2">
+        <v>15036987584</v>
+      </c>
+      <c r="H98" s="6">
+        <v>233</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="2">
+        <v>5</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G99" s="2">
+        <v>15036987585</v>
+      </c>
+      <c r="H99" s="6">
+        <v>234</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="2">
+        <v>5</v>
+      </c>
+      <c r="K99" s="2">
+        <v>1</v>
+      </c>
+      <c r="L99" s="2">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="2">
+        <v>15036987586</v>
+      </c>
+      <c r="H100" s="6">
+        <v>235</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="2">
+        <v>5</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G101" s="2">
+        <v>15036987587</v>
+      </c>
+      <c r="H101" s="6">
+        <v>236</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="2">
+        <v>5</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1</v>
+      </c>
+      <c r="L101" s="2">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G102" s="2">
+        <v>15036987588</v>
+      </c>
+      <c r="H102" s="6">
+        <v>237</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="2">
+        <v>5</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1</v>
+      </c>
+      <c r="L102" s="2">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="2">
+        <v>15036987589</v>
+      </c>
+      <c r="H103" s="6">
+        <v>238</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="2">
+        <v>5</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1</v>
+      </c>
+      <c r="L103" s="2">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G104" s="2">
+        <v>15036987590</v>
+      </c>
+      <c r="H104" s="6">
+        <v>239</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="2">
+        <v>5</v>
+      </c>
+      <c r="K104" s="2">
+        <v>1</v>
+      </c>
+      <c r="L104" s="2">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G105" s="2">
+        <v>15036987591</v>
+      </c>
+      <c r="H105" s="6">
+        <v>240</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="2">
+        <v>5</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="2">
+        <v>15036987592</v>
+      </c>
+      <c r="H106" s="6">
+        <v>241</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="2">
+        <v>5</v>
+      </c>
+      <c r="K106" s="2">
+        <v>1</v>
+      </c>
+      <c r="L106" s="2">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G107" s="2">
+        <v>15036987593</v>
+      </c>
+      <c r="H107" s="6">
+        <v>242</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="2">
+        <v>5</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1</v>
+      </c>
+      <c r="L107" s="2">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="2">
+        <v>15036987594</v>
+      </c>
+      <c r="H108" s="6">
+        <v>243</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="2">
+        <v>5</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1</v>
+      </c>
+      <c r="L108" s="2">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" s="2">
+        <v>15036987595</v>
+      </c>
+      <c r="H109" s="6">
+        <v>244</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" s="2">
+        <v>5</v>
+      </c>
+      <c r="K109" s="2">
+        <v>1</v>
+      </c>
+      <c r="L109" s="2">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="2">
+        <v>15036987596</v>
+      </c>
+      <c r="H110" s="6">
+        <v>245</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="2">
+        <v>5</v>
+      </c>
+      <c r="K110" s="2">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G111" s="2">
+        <v>15036987597</v>
+      </c>
+      <c r="H111" s="6">
+        <v>246</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" s="2">
+        <v>5</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1</v>
+      </c>
+      <c r="L111" s="2">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G112" s="2">
+        <v>15036987598</v>
+      </c>
+      <c r="H112" s="6">
+        <v>247</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="2">
+        <v>5</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1</v>
+      </c>
+      <c r="L112" s="2">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G113" s="2">
+        <v>15036987599</v>
+      </c>
+      <c r="H113" s="6">
+        <v>248</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="2">
+        <v>5</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1</v>
+      </c>
+      <c r="L113" s="2">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G114" s="2">
+        <v>15036987600</v>
+      </c>
+      <c r="H114" s="6">
+        <v>249</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1</v>
+      </c>
+      <c r="L114" s="2">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G115" s="2">
+        <v>15036987601</v>
+      </c>
+      <c r="H115" s="6">
+        <v>250</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="2">
+        <v>5</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1</v>
+      </c>
+      <c r="L115" s="2">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D116" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G116" s="2">
+        <v>15036987602</v>
+      </c>
+      <c r="H116" s="6">
+        <v>251</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="2">
+        <v>5</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1</v>
+      </c>
+      <c r="L116" s="2">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G117" s="2">
+        <v>15036987603</v>
+      </c>
+      <c r="H117" s="6">
+        <v>252</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="2">
+        <v>5</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1</v>
+      </c>
+      <c r="L117" s="2">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G118" s="2">
+        <v>15036987604</v>
+      </c>
+      <c r="H118" s="6">
+        <v>253</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="2">
+        <v>5</v>
+      </c>
+      <c r="K118" s="2">
+        <v>1</v>
+      </c>
+      <c r="L118" s="2">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G119" s="2">
+        <v>15036987605</v>
+      </c>
+      <c r="H119" s="6">
+        <v>254</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="2">
+        <v>5</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1</v>
+      </c>
+      <c r="L119" s="2">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G120" s="2">
+        <v>15036987606</v>
+      </c>
+      <c r="H120" s="6">
+        <v>255</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="2">
+        <v>5</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="2">
+        <v>15036987607</v>
+      </c>
+      <c r="H121" s="6">
+        <v>256</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" s="2">
+        <v>5</v>
+      </c>
+      <c r="K121" s="2">
+        <v>1</v>
+      </c>
+      <c r="L121" s="2">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G122" s="2">
+        <v>15036987608</v>
+      </c>
+      <c r="H122" s="6">
+        <v>257</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" s="2">
+        <v>5</v>
+      </c>
+      <c r="K122" s="2">
+        <v>1</v>
+      </c>
+      <c r="L122" s="2">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" s="2">
+        <v>15036987609</v>
+      </c>
+      <c r="H123" s="6">
+        <v>258</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="2">
+        <v>5</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1</v>
+      </c>
+      <c r="L123" s="2">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G124" s="2">
+        <v>15036987610</v>
+      </c>
+      <c r="H124" s="6">
+        <v>259</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="2">
+        <v>5</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G125" s="2">
+        <v>15036987611</v>
+      </c>
+      <c r="H125" s="6">
+        <v>260</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="2">
+        <v>5</v>
+      </c>
+      <c r="K125" s="2">
+        <v>1</v>
+      </c>
+      <c r="L125" s="2">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G126" s="2">
+        <v>15036987612</v>
+      </c>
+      <c r="H126" s="6">
+        <v>261</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="2">
+        <v>5</v>
+      </c>
+      <c r="K126" s="2">
+        <v>1</v>
+      </c>
+      <c r="L126" s="2">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D127" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G127" s="2">
+        <v>15036987613</v>
+      </c>
+      <c r="H127" s="6">
+        <v>262</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="2">
+        <v>5</v>
+      </c>
+      <c r="K127" s="2">
+        <v>1</v>
+      </c>
+      <c r="L127" s="2">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D128" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G128" s="2">
+        <v>15036987614</v>
+      </c>
+      <c r="H128" s="6">
+        <v>263</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" s="2">
+        <v>5</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1</v>
+      </c>
+      <c r="L128" s="2">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G129" s="2">
+        <v>15036987615</v>
+      </c>
+      <c r="H129" s="6">
+        <v>264</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="2">
+        <v>5</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1</v>
+      </c>
+      <c r="L129" s="2">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G130" s="2">
+        <v>15036987616</v>
+      </c>
+      <c r="H130" s="6">
+        <v>265</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="2">
+        <v>5</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
+      <c r="L130" s="2">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D131" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G131" s="2">
+        <v>15036987617</v>
+      </c>
+      <c r="H131" s="6">
+        <v>266</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="2">
+        <v>5</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
+      <c r="L131" s="2">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D132" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G132" s="2">
+        <v>15036987618</v>
+      </c>
+      <c r="H132" s="6">
+        <v>267</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="2">
+        <v>5</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1</v>
+      </c>
+      <c r="L132" s="2">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D133" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G133" s="2">
+        <v>15036987619</v>
+      </c>
+      <c r="H133" s="6">
+        <v>268</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J133" s="2">
+        <v>5</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G134" s="2">
+        <v>15036987620</v>
+      </c>
+      <c r="H134" s="6">
+        <v>269</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="2">
+        <v>5</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="2">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D135" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G135" s="2">
+        <v>15036987621</v>
+      </c>
+      <c r="H135" s="6">
+        <v>270</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="2">
+        <v>5</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1</v>
+      </c>
+      <c r="L135" s="2">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" s="2">
+        <v>15036987622</v>
+      </c>
+      <c r="H136" s="6">
+        <v>271</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" s="2">
+        <v>5</v>
+      </c>
+      <c r="K136" s="2">
+        <v>1</v>
+      </c>
+      <c r="L136" s="2">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D137" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G137" s="2">
+        <v>15036987623</v>
+      </c>
+      <c r="H137" s="6">
+        <v>272</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="2">
+        <v>5</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D138" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G138" s="2">
+        <v>15036987624</v>
+      </c>
+      <c r="H138" s="6">
+        <v>273</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" s="2">
+        <v>5</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1</v>
+      </c>
+      <c r="L138" s="2">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G139" s="2">
+        <v>15036987625</v>
+      </c>
+      <c r="H139" s="6">
+        <v>274</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="2">
+        <v>5</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1</v>
+      </c>
+      <c r="L139" s="2">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G140" s="2">
+        <v>15036987626</v>
+      </c>
+      <c r="H140" s="6">
+        <v>275</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="2">
+        <v>5</v>
+      </c>
+      <c r="K140" s="2">
+        <v>1</v>
+      </c>
+      <c r="L140" s="2">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D141" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G141" s="2">
+        <v>15036987627</v>
+      </c>
+      <c r="H141" s="6">
+        <v>276</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="2">
+        <v>5</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1</v>
+      </c>
+      <c r="L141" s="2">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G142" s="2">
+        <v>15036987628</v>
+      </c>
+      <c r="H142" s="6">
+        <v>277</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="2">
+        <v>5</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1</v>
+      </c>
+      <c r="L142" s="2">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D143" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G143" s="2">
+        <v>15036987629</v>
+      </c>
+      <c r="H143" s="6">
+        <v>278</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J143" s="2">
+        <v>5</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1</v>
+      </c>
+      <c r="L143" s="2">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G144" s="2">
+        <v>15036987630</v>
+      </c>
+      <c r="H144" s="6">
+        <v>279</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" s="2">
+        <v>5</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1</v>
+      </c>
+      <c r="L144" s="2">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D145" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" s="2">
+        <v>15036987631</v>
+      </c>
+      <c r="H145" s="6">
+        <v>280</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="2">
+        <v>5</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+      <c r="L145" s="2">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D146" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G146" s="2">
+        <v>15036987632</v>
+      </c>
+      <c r="H146" s="6">
+        <v>281</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="2">
+        <v>5</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+      <c r="L146" s="2">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G147" s="2">
+        <v>15036987633</v>
+      </c>
+      <c r="H147" s="6">
+        <v>282</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="2">
+        <v>5</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+      <c r="L147" s="2">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G148" s="2">
+        <v>15036987634</v>
+      </c>
+      <c r="H148" s="6">
+        <v>283</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" s="2">
+        <v>5</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
+      <c r="L148" s="2">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D149" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G149" s="2">
+        <v>15036987635</v>
+      </c>
+      <c r="H149" s="6">
+        <v>284</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="2">
+        <v>5</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+      <c r="L149" s="2">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D150" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G150" s="2">
+        <v>15036987636</v>
+      </c>
+      <c r="H150" s="6">
+        <v>285</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="2">
+        <v>5</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+      <c r="L150" s="2">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D151" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G151" s="2">
+        <v>15036987637</v>
+      </c>
+      <c r="H151" s="6">
+        <v>286</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="2">
+        <v>5</v>
+      </c>
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+      <c r="L151" s="2">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D152" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G152" s="2">
+        <v>15036987638</v>
+      </c>
+      <c r="H152" s="6">
+        <v>287</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="2">
+        <v>5</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+      <c r="L152" s="2">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G153" s="2">
+        <v>15036987639</v>
+      </c>
+      <c r="H153" s="6">
+        <v>288</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="2">
+        <v>5</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1</v>
+      </c>
+      <c r="L153" s="2">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D154" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G154" s="2">
+        <v>15036987640</v>
+      </c>
+      <c r="H154" s="6">
+        <v>289</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="2">
+        <v>5</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+      <c r="L154" s="2">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D155" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G155" s="2">
+        <v>15036987641</v>
+      </c>
+      <c r="H155" s="6">
+        <v>290</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="2">
+        <v>5</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1</v>
+      </c>
+      <c r="L155" s="2">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D156" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G156" s="2">
+        <v>15036987642</v>
+      </c>
+      <c r="H156" s="6">
+        <v>291</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="2">
+        <v>5</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1</v>
+      </c>
+      <c r="L156" s="2">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G157" s="2">
+        <v>15036987643</v>
+      </c>
+      <c r="H157" s="6">
+        <v>292</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" s="2">
+        <v>5</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1</v>
+      </c>
+      <c r="L157" s="2">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G158" s="2">
+        <v>15036987644</v>
+      </c>
+      <c r="H158" s="6">
+        <v>293</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="2">
+        <v>5</v>
+      </c>
+      <c r="K158" s="2">
+        <v>1</v>
+      </c>
+      <c r="L158" s="2">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D159" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G159" s="2">
+        <v>15036987645</v>
+      </c>
+      <c r="H159" s="6">
+        <v>294</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="2">
+        <v>5</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1</v>
+      </c>
+      <c r="L159" s="2">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D160" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G160" s="2">
+        <v>15036987646</v>
+      </c>
+      <c r="H160" s="6">
+        <v>295</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="2">
+        <v>5</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1</v>
+      </c>
+      <c r="L160" s="2">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D161" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G161" s="2">
+        <v>15036987647</v>
+      </c>
+      <c r="H161" s="6">
+        <v>296</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="2">
+        <v>5</v>
+      </c>
+      <c r="K161" s="2">
+        <v>1</v>
+      </c>
+      <c r="L161" s="2">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D162" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G162" s="2">
+        <v>15036987648</v>
+      </c>
+      <c r="H162" s="6">
+        <v>297</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" s="2">
+        <v>5</v>
+      </c>
+      <c r="K162" s="2">
+        <v>1</v>
+      </c>
+      <c r="L162" s="2">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D163" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G163" s="2">
+        <v>15036987649</v>
+      </c>
+      <c r="H163" s="6">
+        <v>298</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="2">
+        <v>5</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1</v>
+      </c>
+      <c r="L163" s="2">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D164" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G164" s="2">
+        <v>15036987650</v>
+      </c>
+      <c r="H164" s="6">
+        <v>299</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" s="2">
+        <v>5</v>
+      </c>
+      <c r="K164" s="2">
+        <v>1</v>
+      </c>
+      <c r="L164" s="2">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D165" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G165" s="2">
+        <v>15036987651</v>
+      </c>
+      <c r="H165" s="6">
+        <v>300</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" s="2">
+        <v>5</v>
+      </c>
+      <c r="K165" s="2">
+        <v>1</v>
+      </c>
+      <c r="L165" s="2">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D166" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G166" s="2">
+        <v>15036987652</v>
+      </c>
+      <c r="H166" s="6">
+        <v>301</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" s="2">
+        <v>5</v>
+      </c>
+      <c r="K166" s="2">
+        <v>1</v>
+      </c>
+      <c r="L166" s="2">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D167" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G167" s="2">
+        <v>15036987653</v>
+      </c>
+      <c r="H167" s="6">
+        <v>302</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J167" s="2">
+        <v>5</v>
+      </c>
+      <c r="K167" s="2">
+        <v>1</v>
+      </c>
+      <c r="L167" s="2">
         <v>2781</v>
       </c>
     </row>

--- a/ChengGuan/testFile/newPersonnel/newPresonnel.xlsx
+++ b/ChengGuan/testFile/newPersonnel/newPresonnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\dcms\ChengGuan\testFile\newPersonnel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580CD5C-7094-40C2-8772-1B6EED0B5A71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A522BD1D-BCAC-4EBC-90F8-9E48537B4CA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="62">
   <si>
     <t>deptId</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王阁员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,6 +221,10 @@
   </si>
   <si>
     <t>城管义务监督员</t>
+  </si>
+  <si>
+    <t>支法举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,25 +251,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF393939"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF393939"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -301,15 +315,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,17 +329,30 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,212 +694,212 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>15036987571</v>
       </c>
       <c r="H2" s="6">
         <v>1001</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="5">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>15036987572</v>
       </c>
       <c r="H3" s="6">
         <v>2001</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="5">
         <v>6</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="5">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>15036987573</v>
       </c>
       <c r="H4" s="6">
         <v>3001</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>3001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>15523231258</v>
       </c>
       <c r="H5" s="6">
         <v>4001</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="2">
+        <v>60</v>
+      </c>
+      <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="5">
         <v>4001</v>
       </c>
     </row>
@@ -896,17 +920,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
